--- a/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>19.40496617138893</v>
+        <v>19.28388964078118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>22.01788956043139</v>
+        <v>22.39418711128316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.3647650623952</v>
+        <v>18.24008754824829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.74750107377944</v>
+        <v>18.02987382878904</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>19.57195304458492</v>
+        <v>19.46234693493444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.65565275142422</v>
+        <v>17.65292606491317</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>19.3608869610014</v>
+        <v>19.28375056533847</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>21.64617078133749</v>
+        <v>21.77195862825089</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.54747948555309</v>
+        <v>18.638745263954</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.50079533592126</v>
+        <v>24.83441711424283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>29.39882895392209</v>
+        <v>29.59509055814584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.43743403300833</v>
+        <v>24.37616724420031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.16689876930308</v>
+        <v>23.34285931911091</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.51168110013251</v>
+        <v>25.4236196902918</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.67873860972549</v>
+        <v>22.50205045420583</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.18865393280332</v>
+        <v>22.9328950950885</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.47030684095277</v>
+        <v>26.45919267783806</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.40704134360369</v>
+        <v>22.84769753392564</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>23.81672105717369</v>
+        <v>23.77068778595467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>27.61447111852187</v>
+        <v>27.3621248136019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22.81486153818322</v>
+        <v>22.63406749835871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20.07480770646062</v>
+        <v>20.22101520092286</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>20.13926790928819</v>
+        <v>20.22363506033655</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.17512330469686</v>
+        <v>18.38190830964787</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>22.95613466436925</v>
+        <v>22.88012108593497</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>24.60803752800274</v>
+        <v>24.52997309465179</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>21.09106177637531</v>
+        <v>21.19768281610649</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>29.4465302444606</v>
+        <v>29.47980937432589</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>34.55288566354852</v>
+        <v>34.71644522320111</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.34430220668781</v>
+        <v>29.31511218369015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25.0100110678053</v>
+        <v>24.89251473939998</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>25.32332839252759</v>
+        <v>25.41513152589089</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.96899415116451</v>
+        <v>23.17899415702474</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>26.46283557624054</v>
+        <v>26.43861990894738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>29.14878226317743</v>
+        <v>29.24281585405677</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>24.99855312274677</v>
+        <v>25.42266030069374</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.51662966447671</v>
+        <v>25.03654650634979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>29.41232622429727</v>
+        <v>29.34095623389328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.77161564194849</v>
+        <v>26.64152536432243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24.20144757512669</v>
+        <v>24.32076250684991</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>23.58221245450753</v>
+        <v>23.33518208409685</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.23126470607088</v>
+        <v>20.29201351648145</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>25.0818399586388</v>
+        <v>25.38380605774312</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>27.36687222749107</v>
+        <v>27.36802968753052</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>24.10935760151016</v>
+        <v>24.07320209967767</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>33.38779003580213</v>
+        <v>33.06688296014068</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>37.08766575631815</v>
+        <v>36.88175207031583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33.62786169297262</v>
+        <v>33.59465000759248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29.49852441738264</v>
+        <v>29.56871727652452</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>29.96572535802563</v>
+        <v>29.28889438587283</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>24.5148729527405</v>
+        <v>24.35027894261595</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>30.12632811295358</v>
+        <v>30.0265530347294</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>32.46866123765981</v>
+        <v>32.01835942989133</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>28.31256417332206</v>
+        <v>28.46398306141831</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.99006217426339</v>
+        <v>30.19987479170816</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.88437516610816</v>
+        <v>30.92356331656703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28.54368733897177</v>
+        <v>28.80831845839477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28.78007594600441</v>
+        <v>28.40916792995514</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>30.2109378287156</v>
+        <v>30.09264367828724</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.65024591548636</v>
+        <v>25.9055300098751</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>30.82110820377386</v>
+        <v>30.45712793215158</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>31.69657564350255</v>
+        <v>31.44076827566375</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>28.23007154907905</v>
+        <v>28.25760357523917</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>40.79789362686159</v>
+        <v>41.8292462079941</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.58492619089593</v>
+        <v>40.45943126577335</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.28521378125242</v>
+        <v>38.88169119206943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39.69894852249362</v>
+        <v>39.96528411539337</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>38.37242414312232</v>
+        <v>38.0269637262119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.2399964722397</v>
+        <v>34.35233722886802</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>38.59706800447038</v>
+        <v>38.32987307115192</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>37.86522713591469</v>
+        <v>37.53085518044891</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>34.92925080558695</v>
+        <v>35.11819449660585</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>32.78082603846945</v>
+        <v>32.93153480600625</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>44.96500595525073</v>
+        <v>45.95125057619483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34.87714345353533</v>
+        <v>35.34481184152823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42.17863848955808</v>
+        <v>42.95213786057529</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>38.15677881146217</v>
+        <v>37.11195356881225</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>24.89281352442694</v>
+        <v>24.96574769298353</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>39.30728823117619</v>
+        <v>39.38370225169052</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>43.64181451231659</v>
+        <v>43.14554196214208</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>31.47440301572489</v>
+        <v>31.66955554111242</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45.38685427424627</v>
+        <v>46.61393213450428</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>63.38640439637413</v>
+        <v>65.81313096372456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62.75914673146068</v>
+        <v>61.41334901958583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62.18075035666411</v>
+        <v>63.58671392441912</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>56.96717100428423</v>
+        <v>55.84979228997302</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.04983518516595</v>
+        <v>35.94368726165958</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>51.71730919631578</v>
+        <v>51.33872558835606</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>57.3912446434638</v>
+        <v>55.85812150703133</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>46.78080810158792</v>
+        <v>45.87070419264035</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>54.36117690406606</v>
+        <v>55.29256797239811</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>63.39380113480906</v>
+        <v>62.53568317675195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45.55401998418784</v>
+        <v>46.36012822056728</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56.21053281606911</v>
+        <v>55.45456736963082</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>43.42320513878348</v>
+        <v>44.15399261621778</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.84244226058816</v>
+        <v>27.86244205996197</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>58.45685886526393</v>
+        <v>57.90196996838711</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>55.34513353808626</v>
+        <v>55.2501003711861</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>38.95365585811441</v>
+        <v>38.56363593966318</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>76.11988623124752</v>
+        <v>76.16009924101631</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>86.60442299787617</v>
+        <v>86.33040046044282</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>71.47444403419567</v>
+        <v>74.12027878657062</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>83.81672729045071</v>
+        <v>83.03386267050789</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>62.07389894140594</v>
+        <v>63.88587552408404</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>42.08895017709123</v>
+        <v>40.82664795881813</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>75.6567960237868</v>
+        <v>75.02231382042388</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>70.70886385308077</v>
+        <v>69.24017496720647</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>54.21132098643913</v>
+        <v>53.63590249446884</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>97.96784518152829</v>
+        <v>99.33101977163139</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>80.52379980592855</v>
+        <v>80.93258778244476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53.2896776350855</v>
+        <v>53.08178195747457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84.7212739121651</v>
+        <v>84.99029311659591</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>80.87103310630403</v>
+        <v>80.77336262532661</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>43.50515634432909</v>
+        <v>44.38700657942087</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>94.50375857020718</v>
+        <v>94.33336677947879</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>84.03526867019598</v>
+        <v>83.5644873779743</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>49.80202666320205</v>
+        <v>49.83943765585308</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>137.4498695007306</v>
+        <v>139.6873720448699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>115.0782166990339</v>
+        <v>117.0003498094641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76.01048138141192</v>
+        <v>75.54932702009206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112.7369789166127</v>
+        <v>111.8424702461781</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>111.1782105643609</v>
+        <v>112.8966480625709</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>71.32990320101065</v>
+        <v>73.37034536393799</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>116.7619300394793</v>
+        <v>116.9967291442763</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>106.8967152048155</v>
+        <v>106.0594710653565</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>70.54767964652598</v>
+        <v>69.62156207477071</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>35.015808552778</v>
+        <v>34.95362157941499</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>40.54066706751013</v>
+        <v>40.78515054541301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33.05279684876311</v>
+        <v>33.07523711610392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37.40313899158926</v>
+        <v>37.66602281671658</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>37.05625055461094</v>
+        <v>36.84599226362186</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>26.81750453659317</v>
+        <v>26.87910779866056</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>37.00836030300241</v>
+        <v>36.95267524430697</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>39.47097310967212</v>
+        <v>39.40232228305717</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>30.64796609867103</v>
+        <v>30.56631929088016</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>39.74976015207249</v>
+        <v>39.76756655295195</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>45.96800964804987</v>
+        <v>46.22315007504855</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>38.825176278619</v>
+        <v>38.77728219189459</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>43.0599257462347</v>
+        <v>43.11962952732075</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>42.08178163027152</v>
+        <v>42.45232012053246</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>31.09679529956402</v>
+        <v>31.00962660773208</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>40.55459197367251</v>
+        <v>40.53519178699879</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>43.21893081244744</v>
+        <v>43.37359424680332</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>34.04781943149742</v>
+        <v>34.13006373537082</v>
       </c>
     </row>
     <row r="28">
